--- a/nc_voter_registration_counts.xlsx
+++ b/nc_voter_registration_counts.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="Total Voters" sheetId="1" r:id="rId1"/>
     <sheet name="Hispanic Voters" sheetId="2" r:id="rId2"/>
-    <sheet name="Non-Hispanic Voters" sheetId="3" r:id="rId3"/>
+    <sheet name="Non-Hispanic and Non-Undesign" sheetId="3" r:id="rId3"/>
+    <sheet name="Undesignated Voters" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -537,7 +538,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Number of Non-Hispanic Voters</t>
+          <t>Number of Non-Hispanic and Non-Undesignated Voters</t>
         </is>
       </c>
     </row>
@@ -548,7 +549,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>2737073</v>
+        <v>2011705</v>
       </c>
     </row>
     <row r="3">
@@ -558,7 +559,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>2364</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +569,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>52128</v>
+        <v>34603</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +579,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>13699</v>
+        <v>8240</v>
       </c>
     </row>
     <row r="6">
@@ -588,7 +589,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>2540104</v>
+        <v>1914504</v>
       </c>
     </row>
     <row r="7">
@@ -598,7 +599,92 @@
         </is>
       </c>
       <c r="B7">
-        <v>3019618</v>
+        <v>2004857</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Party</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Undesignated Voters</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>725368</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LIB</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>17525</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NLB</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>5459</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>625600</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>UNA</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>1014761</v>
       </c>
     </row>
   </sheetData>
